--- a/Modeling/Lab2/Lab2.xlsx
+++ b/Modeling/Lab2/Lab2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolia\Documents\GitHub\ITMO-PE\Modeling\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35550299-87B5-4AA2-B5F2-742E6F5249AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6E180-7E9B-4502-9D18-97A227776A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>СИСТЕМА_1</t>
   </si>
@@ -95,13 +96,191 @@
   </si>
   <si>
     <t xml:space="preserve">(в) </t>
+  </si>
+  <si>
+    <t>Система_1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>0/0, 0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1, 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0, 1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0, 0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0, 2/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0, 3/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0, 4/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1, 0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 2/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 3/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 4/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1, 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +306,23 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,10 +400,14 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,18 +419,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{9002CB87-EA0E-449C-8FE2-9CF21350334F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -519,14 +750,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
@@ -536,11 +767,11 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -613,4 +844,1312 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6495AC9-F059-4888-B5FE-3114491E643B}">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="8" customWidth="1"/>
+    <col min="6" max="23" width="6.5" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-0.16999999999999901</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-0.22999999999999901</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="9">
+        <v>-0.219999999999999</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="S15" s="9">
+        <v>-0.219999999999999</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>-0.39999999999999902</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U17" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="W19" s="9">
+        <v>-0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:W19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>